--- a/xlsx/公共物品_intext.xlsx
+++ b/xlsx/公共物品_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>公共物品</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>政策_政策_公共政策_公共物品</t>
@@ -65,13 +65,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2</t>
   </si>
   <si>
-    <t>國防</t>
+    <t>国防</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E5%A4%B1%E7%81%B5</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%90%AD%E4%BE%BF%E8%BB%8A%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>搭便車問題</t>
+    <t>搭便车问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>私有財產</t>
+    <t>私有财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E5%9B%A2%E8%B4%A2%E4%BA%A7</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E6%A3%AE%E7%A9%86%E9%81%9C</t>
   </si>
   <si>
-    <t>保羅·森穆遜</t>
+    <t>保罗·森穆逊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E4%BA%94%E5%B8%B8</t>
   </si>
   <si>
-    <t>張五常</t>
+    <t>张五常</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%89%A9</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E7%9A%84%E4%BA%A4%E5%8F%89%E5%BD%88%E6%80%A7</t>
   </si>
   <si>
-    <t>需求的交叉彈性</t>
+    <t>需求的交叉弹性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E5%8A%A9%E5%93%81</t>
   </si>
   <si>
-    <t>輔助品</t>
+    <t>辅助品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E6%9B%BF%E5%93%81</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%93%81</t>
   </si>
   <si>
-    <t>獨立品</t>
+    <t>独立品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E7%9A%84%E6%94%B6%E5%85%A5%E5%BD%88%E6%80%A7</t>
   </si>
   <si>
-    <t>需求的收入彈性</t>
+    <t>需求的收入弹性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A3%E7%AD%89%E7%89%A9%E5%93%81</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E5%93%81</t>
   </si>
   <si>
-    <t>消費品</t>
+    <t>消费品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E5%93%81</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E5%9C%98%E5%93%81</t>
   </si>
   <si>
-    <t>集團品</t>
+    <t>集团品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E6%B6%88%E5%93%81</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E4%BC%AF%E5%80%AB%E5%95%86%E5%93%81</t>
   </si>
   <si>
-    <t>韋伯倫商品</t>
+    <t>韦伯伦商品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Microeconomics</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>微觀經濟學</t>
+    <t>微观经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%82%E7%BB%8F%E6%B5%8E%E5%AD%A6%E7%9B%B8%E5%85%B3%E4%B8%BB%E9%A2%98%E5%88%97%E8%A1%A8</t>
@@ -281,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E5%93%81_(%E7%B6%93%E6%BF%9F%E5%AD%B8)</t>
   </si>
   <si>
-    <t>物品 (經濟學)</t>
+    <t>物品 (经济学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%9D%9F%E6%A5%B5%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>約束極大化</t>
+    <t>约束极大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%9C%83%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>機會成本</t>
+    <t>机会成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E6%B2%A1%E6%88%90%E6%9C%AC</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%B5%A6%E5%92%8C%E9%9C%80%E6%B1%82</t>
   </si>
   <si>
-    <t>供給和需求</t>
+    <t>供给和需求</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9B%E7%BB%99%E6%9B%B2%E7%BA%BF</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>需求曲線</t>
+    <t>需求曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B9%E6%80%A7_(%E7%BB%8F%E6%B5%8E%E5%AD%A6)</t>
@@ -341,13 +341,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%9D%87%E8%A1%A1</t>
   </si>
   <si>
-    <t>經濟均衡</t>
+    <t>经济均衡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%9F%AD%E7%BC%BA</t>
   </si>
   <si>
-    <t>經濟短缺</t>
+    <t>经济短缺</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Excess_supply</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E8%88%AC%E5%9D%87%E8%A1%A1%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>一般均衡理論</t>
+    <t>一般均衡理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%8F%E5%A5%BD</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E5%84%AA%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等優曲線</t>
+    <t>等优曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%90%E7%AE%97%E7%B7%9A</t>
   </si>
   <si>
-    <t>預算線</t>
+    <t>预算线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Income%E2%80%93consumption_curve</t>
@@ -395,13 +395,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%A2%BA%E5%AE%9A%E6%80%A7</t>
   </si>
   <si>
-    <t>不確定性</t>
+    <t>不确定性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E9%9A%AA%E5%8E%AD%E6%83%A1</t>
   </si>
   <si>
-    <t>風險厭惡</t>
+    <t>风险厌恶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%9F%E5%A4%B1%E8%A7%84%E9%81%BF</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC%E9%81%9E%E6%B8%9B</t>
   </si>
   <si>
-    <t>報酬遞減</t>
+    <t>报酬递减</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BA%E5%AE%9A%E6%88%90%E6%9C%AC</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E5%8B%95%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>變動成本</t>
+    <t>变动成本</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Average_cost</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E9%9A%9B%E6%88%90%E6%9C%AC</t>
   </si>
   <si>
-    <t>邊際成本</t>
+    <t>边际成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%B6%A6</t>
@@ -473,19 +473,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%94%A2%E9%87%8F%E6%9B%B2%E7%B7%9A</t>
   </si>
   <si>
-    <t>等產量曲線</t>
+    <t>等产量曲线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%BD%A4%E6%9C%80%E5%A4%A7%E5%8C%96</t>
   </si>
   <si>
-    <t>利潤最大化</t>
+    <t>利润最大化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E6%A8%A1%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>規模經濟</t>
+    <t>规模经济</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Economies_of_scope</t>
@@ -497,25 +497,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%83%B9%E6%A0%BC</t>
   </si>
   <si>
-    <t>價格</t>
+    <t>价格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%89%A9%E9%A4%98</t>
   </si>
   <si>
-    <t>經濟剩餘</t>
+    <t>经济剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B4%B9%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>消费者剩余</t>
+    <t>消费者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E4%BA%A7%E8%80%85%E5%89%A9%E4%BD%99</t>
   </si>
   <si>
-    <t>生产者剩余</t>
+    <t>生产者剩馀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E8%B0%93%E6%8D%9F%E5%A4%B1</t>
@@ -527,9 +527,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E5%A4%B1%E9%9D%88</t>
   </si>
   <si>
-    <t>市場失靈</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E9%83%A8%E6%80%A7</t>
   </si>
   <si>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%A3%E6%96%B9%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>賣方壟斷</t>
+    <t>卖方垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%B0%E6%96%B9%E5%9E%84%E6%96%AD</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E5%A3%9F%E6%96%B7</t>
   </si>
   <si>
-    <t>寡頭壟斷</t>
+    <t>寡头垄断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8C%E5%A4%B4%E5%9E%84%E6%96%AD</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E7%82%BA%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>行為經濟學</t>
+    <t>行为经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -605,19 +602,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計算經濟學</t>
+    <t>计算经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E7%AD%96%E8%AB%96</t>
   </si>
   <si>
-    <t>決策論</t>
+    <t>决策论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E9%87%8F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>計量經濟學</t>
+    <t>计量经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E9%AA%8C%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -629,13 +626,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>家庭經濟學</t>
+    <t>家庭经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%BC%88%E8%AB%96</t>
   </si>
   <si>
-    <t>博弈論</t>
+    <t>博弈论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A7%E4%B8%9A%E7%BB%84%E7%BB%87%E7%90%86%E8%AE%BA</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞動經濟學</t>
+    <t>劳动经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Managerial_economics</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>數理經濟學</t>
+    <t>数理经济学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Microfoundations</t>
@@ -671,13 +668,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>運籌學</t>
+    <t>运筹学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%88%A9%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>福利經濟學</t>
+    <t>福利经济学</t>
   </si>
 </sst>
 </file>
@@ -3629,7 +3626,7 @@
         <v>169</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3655,10 +3652,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" t="s">
         <v>171</v>
-      </c>
-      <c r="F91" t="s">
-        <v>172</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3684,10 +3681,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>172</v>
+      </c>
+      <c r="F92" t="s">
         <v>173</v>
-      </c>
-      <c r="F92" t="s">
-        <v>174</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3713,10 +3710,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>174</v>
+      </c>
+      <c r="F93" t="s">
         <v>175</v>
-      </c>
-      <c r="F93" t="s">
-        <v>176</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3742,10 +3739,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>176</v>
+      </c>
+      <c r="F94" t="s">
         <v>177</v>
-      </c>
-      <c r="F94" t="s">
-        <v>178</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3771,10 +3768,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>178</v>
+      </c>
+      <c r="F95" t="s">
         <v>179</v>
-      </c>
-      <c r="F95" t="s">
-        <v>180</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3800,10 +3797,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>180</v>
+      </c>
+      <c r="F96" t="s">
         <v>181</v>
-      </c>
-      <c r="F96" t="s">
-        <v>182</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3829,10 +3826,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>182</v>
+      </c>
+      <c r="F97" t="s">
         <v>183</v>
-      </c>
-      <c r="F97" t="s">
-        <v>184</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3858,10 +3855,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>184</v>
+      </c>
+      <c r="F98" t="s">
         <v>185</v>
-      </c>
-      <c r="F98" t="s">
-        <v>186</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3887,10 +3884,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99" t="s">
         <v>187</v>
-      </c>
-      <c r="F99" t="s">
-        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3916,10 +3913,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" t="s">
         <v>189</v>
-      </c>
-      <c r="F100" t="s">
-        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3945,10 +3942,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" t="s">
         <v>191</v>
-      </c>
-      <c r="F101" t="s">
-        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3974,10 +3971,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
         <v>193</v>
-      </c>
-      <c r="F102" t="s">
-        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4003,10 +4000,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
         <v>195</v>
-      </c>
-      <c r="F103" t="s">
-        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4032,10 +4029,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="s">
         <v>197</v>
-      </c>
-      <c r="F104" t="s">
-        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4061,10 +4058,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" t="s">
         <v>199</v>
-      </c>
-      <c r="F105" t="s">
-        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4090,10 +4087,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106" t="s">
         <v>201</v>
-      </c>
-      <c r="F106" t="s">
-        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4119,10 +4116,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" t="s">
         <v>203</v>
-      </c>
-      <c r="F107" t="s">
-        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4148,10 +4145,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" t="s">
         <v>205</v>
-      </c>
-      <c r="F108" t="s">
-        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4177,10 +4174,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109" t="s">
         <v>207</v>
-      </c>
-      <c r="F109" t="s">
-        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4206,10 +4203,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" t="s">
         <v>209</v>
-      </c>
-      <c r="F110" t="s">
-        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4235,10 +4232,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" t="s">
         <v>211</v>
-      </c>
-      <c r="F111" t="s">
-        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4264,10 +4261,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" t="s">
         <v>213</v>
-      </c>
-      <c r="F112" t="s">
-        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4293,10 +4290,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" t="s">
         <v>215</v>
-      </c>
-      <c r="F113" t="s">
-        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4322,10 +4319,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" t="s">
         <v>217</v>
-      </c>
-      <c r="F114" t="s">
-        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4351,10 +4348,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
         <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
